--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value553.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value553.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5295666877666495</v>
+        <v>1.426653623580933</v>
       </c>
       <c r="B1">
-        <v>0.6686176735069874</v>
+        <v>1.57176661491394</v>
       </c>
       <c r="C1">
-        <v>0.9766123884766303</v>
+        <v>1.680267095565796</v>
       </c>
       <c r="D1">
-        <v>2.831613721586988</v>
+        <v>2.363569974899292</v>
       </c>
       <c r="E1">
-        <v>3.47518209017726</v>
+        <v>3.867928028106689</v>
       </c>
     </row>
   </sheetData>
